--- a/Code/Results/Cases/Case_4_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_253/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.68565139463015</v>
+        <v>23.77523808933262</v>
       </c>
       <c r="C2">
-        <v>25.22271177980754</v>
+        <v>16.50886831778488</v>
       </c>
       <c r="D2">
-        <v>7.181089723301421</v>
+        <v>6.065269279119201</v>
       </c>
       <c r="E2">
-        <v>5.013271852624158</v>
+        <v>7.354145249903395</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.070645846050048</v>
+        <v>3.75874884933868</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.96793107954447</v>
+        <v>50.36420617299364</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.488364895618075</v>
+        <v>11.29222126842757</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.73470880537762</v>
+        <v>23.6145350902627</v>
       </c>
       <c r="C3">
-        <v>23.26926327688085</v>
+        <v>15.88631421548643</v>
       </c>
       <c r="D3">
-        <v>6.629350721784674</v>
+        <v>5.962698343820747</v>
       </c>
       <c r="E3">
-        <v>4.912869916337685</v>
+        <v>7.335720397160289</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.092651755926792</v>
+        <v>3.765156196712545</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.99530701138358</v>
+        <v>49.04475038904852</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.163502190442133</v>
+        <v>11.27627308599382</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.51418972513354</v>
+        <v>23.52852340840468</v>
       </c>
       <c r="C4">
-        <v>22.03348957902412</v>
+        <v>15.49813573381704</v>
       </c>
       <c r="D4">
-        <v>6.282980936363247</v>
+        <v>5.901054266776604</v>
       </c>
       <c r="E4">
-        <v>4.852810899452156</v>
+        <v>7.324232198230381</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.106151488055598</v>
+        <v>3.769277306055131</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.50908979103325</v>
+        <v>48.21913970308682</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.969655703610908</v>
+        <v>11.26919269501724</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01045865282831</v>
+        <v>23.49668179905144</v>
       </c>
       <c r="C5">
-        <v>21.52002738636902</v>
+        <v>15.33873381940032</v>
       </c>
       <c r="D5">
-        <v>6.161057356665326</v>
+        <v>5.876301385331165</v>
       </c>
       <c r="E5">
-        <v>4.828643408052065</v>
+        <v>7.319505883819788</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.111666223615566</v>
+        <v>3.771003979864485</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.48331434332449</v>
+        <v>47.87915159728737</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.891998569300972</v>
+        <v>11.2669887387207</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.93310989603867</v>
+        <v>23.49158891767241</v>
       </c>
       <c r="C6">
-        <v>21.43415238520626</v>
+        <v>15.31220030618667</v>
       </c>
       <c r="D6">
-        <v>6.140740172885756</v>
+        <v>5.872214307179093</v>
       </c>
       <c r="E6">
-        <v>4.824646565178376</v>
+        <v>7.318718357669058</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.11258318943945</v>
+        <v>3.771293556792553</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>57.31220653736343</v>
+        <v>47.82249310304139</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.879182737761351</v>
+        <v>11.26666389986712</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.50742270180355</v>
+        <v>23.52808096106527</v>
       </c>
       <c r="C7">
-        <v>22.02660569031516</v>
+        <v>15.49599052683381</v>
       </c>
       <c r="D7">
-        <v>6.281341426628309</v>
+        <v>5.900718910805269</v>
       </c>
       <c r="E7">
-        <v>4.85248383519219</v>
+        <v>7.324168639750024</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.106225787181897</v>
+        <v>3.769300400751649</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.49530771495456</v>
+        <v>48.21456839179891</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.968603058345836</v>
+        <v>11.2691602139771</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.01718785889607</v>
+        <v>23.71721746215704</v>
       </c>
       <c r="C8">
-        <v>24.55621443618427</v>
+        <v>16.29559909644534</v>
       </c>
       <c r="D8">
-        <v>6.993138258571968</v>
+        <v>6.02964510495941</v>
       </c>
       <c r="E8">
-        <v>4.978262487098893</v>
+        <v>7.347828305510065</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.078246788245032</v>
+        <v>3.760919461643765</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.6073217728879</v>
+        <v>49.91266566457823</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.375129068045048</v>
+        <v>11.28615929626019</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.80347032808518</v>
+        <v>24.18709167193156</v>
       </c>
       <c r="C9">
-        <v>29.2714229967473</v>
+        <v>17.80579195070857</v>
       </c>
       <c r="D9">
-        <v>8.31702409551494</v>
+        <v>6.291634356827049</v>
       </c>
       <c r="E9">
-        <v>5.242831964137448</v>
+        <v>7.392867790128599</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.022360425507003</v>
+        <v>3.745955500938267</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.31882898077912</v>
+        <v>53.10598084163969</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.222611918499664</v>
+        <v>11.34101732494315</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.32685549134058</v>
+        <v>24.59017498007402</v>
       </c>
       <c r="C10">
-        <v>32.66722637440976</v>
+        <v>18.8673625526625</v>
       </c>
       <c r="D10">
-        <v>9.262929052848948</v>
+        <v>6.487789658531641</v>
       </c>
       <c r="E10">
-        <v>5.458196250302387</v>
+        <v>7.425180005837763</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.978983981300251</v>
+        <v>3.735840646515481</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.39260144140191</v>
+        <v>55.35164364851484</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.888853350917879</v>
+        <v>11.39442249353165</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.96257321590416</v>
+        <v>24.78545509151069</v>
       </c>
       <c r="C11">
-        <v>34.2243116936235</v>
+        <v>19.33767882967233</v>
       </c>
       <c r="D11">
-        <v>9.694698514217851</v>
+        <v>6.57742378670462</v>
       </c>
       <c r="E11">
-        <v>5.56416178249791</v>
+        <v>7.439721509711927</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.958190658295019</v>
+        <v>3.731426210584606</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.64473579997514</v>
+        <v>56.34825886873703</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.20643436177528</v>
+        <v>11.4215481139618</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.5906382348881</v>
+        <v>24.86105305158911</v>
       </c>
       <c r="C12">
-        <v>34.81904682024808</v>
+        <v>19.51381018726279</v>
       </c>
       <c r="D12">
-        <v>9.859290763536173</v>
+        <v>6.611391453260744</v>
       </c>
       <c r="E12">
-        <v>5.605870384911936</v>
+        <v>7.445206196435469</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.950095976304395</v>
+        <v>3.729781144919806</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>84.8871856518262</v>
+        <v>56.72182777822054</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.34374211126799</v>
+        <v>11.43222487932738</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.45490919599135</v>
+        <v>24.84469937222048</v>
       </c>
       <c r="C13">
-        <v>34.69066632718878</v>
+        <v>19.47596690228212</v>
       </c>
       <c r="D13">
-        <v>9.823776844101204</v>
+        <v>6.604075296749327</v>
       </c>
       <c r="E13">
-        <v>5.59680856557646</v>
+        <v>7.444025930908182</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.951850490253586</v>
+        <v>3.730134261417188</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>84.61899366519717</v>
+        <v>56.64154685253616</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.30690854676016</v>
+        <v>11.42990748087298</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.01404315195566</v>
+        <v>24.79164190114597</v>
       </c>
       <c r="C14">
-        <v>34.27311511318432</v>
+        <v>19.35220950723212</v>
       </c>
       <c r="D14">
-        <v>9.708211571730017</v>
+        <v>6.580218005583414</v>
       </c>
       <c r="E14">
-        <v>5.567558379360265</v>
+        <v>7.440173171869399</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.957529608447703</v>
+        <v>3.731290338874986</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.74669075378453</v>
+        <v>56.37907061588203</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.21649459599213</v>
+        <v>11.42241839813753</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.74526896003682</v>
+        <v>24.75935552949789</v>
       </c>
       <c r="C15">
-        <v>34.0181371413271</v>
+        <v>19.27614407056051</v>
       </c>
       <c r="D15">
-        <v>9.637598033922776</v>
+        <v>6.565607053981322</v>
       </c>
       <c r="E15">
-        <v>5.549863515325897</v>
+        <v>7.437810421660601</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.960977040988283</v>
+        <v>3.73200192339322</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>83.2140227860951</v>
+        <v>56.21779112269155</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.1640024981734</v>
+        <v>11.41788377076649</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.2209229027568</v>
+        <v>24.5776473820963</v>
       </c>
       <c r="C16">
-        <v>32.56597317556371</v>
+        <v>18.83635899998912</v>
       </c>
       <c r="D16">
-        <v>9.234809850601353</v>
+        <v>6.481937131819723</v>
       </c>
       <c r="E16">
-        <v>5.451465336444023</v>
+        <v>7.424226581794197</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.980316235003902</v>
+        <v>3.736132876115791</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.18121966883216</v>
+        <v>55.28598944329334</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.868441309699231</v>
+        <v>11.39270656216826</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.29658259283329</v>
+        <v>24.46918319786797</v>
       </c>
       <c r="C17">
-        <v>31.68029239713043</v>
+        <v>18.5632211534727</v>
       </c>
       <c r="D17">
-        <v>8.988625122205592</v>
+        <v>6.430687751510665</v>
       </c>
       <c r="E17">
-        <v>5.393408615150954</v>
+        <v>7.415853551533254</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.99186702345566</v>
+        <v>3.738714739639791</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.33307877476354</v>
+        <v>54.70779153067393</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.691232308337945</v>
+        <v>11.37798488225111</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.76772381543044</v>
+        <v>24.4079231415301</v>
       </c>
       <c r="C18">
-        <v>31.17177831940815</v>
+        <v>18.40494168194963</v>
       </c>
       <c r="D18">
-        <v>8.847098333908429</v>
+        <v>6.40125020150821</v>
       </c>
       <c r="E18">
-        <v>5.360735287703726</v>
+        <v>7.411022735185433</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.998416018586869</v>
+        <v>3.740217364810503</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.27283611708962</v>
+        <v>54.37289207779168</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.590619524700962</v>
+        <v>11.36978402788222</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.58904435376932</v>
+        <v>24.38737674507372</v>
       </c>
       <c r="C19">
-        <v>30.99967657270052</v>
+        <v>18.35115376908259</v>
       </c>
       <c r="D19">
-        <v>8.799170090671041</v>
+        <v>6.391290991062826</v>
       </c>
       <c r="E19">
-        <v>5.349785542770234</v>
+        <v>7.409384526173097</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.000618835124946</v>
+        <v>3.740729160283417</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.91418138870239</v>
+        <v>54.25910746998674</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.556763197120999</v>
+        <v>11.36705322055048</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.39466675783792</v>
+        <v>24.48061334079644</v>
       </c>
       <c r="C20">
-        <v>31.77446043167676</v>
+        <v>18.59242023553322</v>
       </c>
       <c r="D20">
-        <v>9.014819023486272</v>
+        <v>6.436139462920135</v>
       </c>
       <c r="E20">
-        <v>5.399511778691863</v>
+        <v>7.416746408355049</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.990647643166663</v>
+        <v>3.738438075809372</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.52949441758931</v>
+        <v>54.76958519123366</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.709956631125406</v>
+        <v>11.37952444606321</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.14326247742391</v>
+        <v>24.80718192612443</v>
       </c>
       <c r="C21">
-        <v>34.39558878506047</v>
+        <v>19.38861458289812</v>
       </c>
       <c r="D21">
-        <v>9.742117680918273</v>
+        <v>6.587225041765675</v>
       </c>
       <c r="E21">
-        <v>5.576102632725258</v>
+        <v>7.441305407714542</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.95586817350672</v>
+        <v>3.730950051666559</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>84.00255065382136</v>
+        <v>56.45627193384301</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.24176809692189</v>
+        <v>11.42460715535649</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.99315471881026</v>
+        <v>25.03019616748784</v>
       </c>
       <c r="C22">
-        <v>36.14096929614972</v>
+        <v>19.89744911335831</v>
       </c>
       <c r="D22">
-        <v>10.22448243983037</v>
+        <v>6.686100612790227</v>
       </c>
       <c r="E22">
-        <v>5.701079802509815</v>
+        <v>7.457229059735688</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.931798556132425</v>
+        <v>3.726211020840331</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>87.6480151426797</v>
+        <v>57.53621295781244</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.72209686871536</v>
+        <v>11.45642988109103</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.99919973835939</v>
+        <v>24.91031459508922</v>
       </c>
       <c r="C23">
-        <v>35.20500578028619</v>
+        <v>19.62697525907284</v>
       </c>
       <c r="D23">
-        <v>9.966007959351352</v>
+        <v>6.63332722264586</v>
       </c>
       <c r="E23">
-        <v>5.633308974160778</v>
+        <v>7.448741672313199</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.944797375513386</v>
+        <v>3.728726259132987</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>85.69342259472835</v>
+        <v>56.96195189974718</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.45438330973539</v>
+        <v>11.43923055702044</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.35031521647512</v>
+        <v>24.47544235008341</v>
       </c>
       <c r="C24">
-        <v>31.73188519154531</v>
+        <v>18.57922320849811</v>
       </c>
       <c r="D24">
-        <v>9.002976797043335</v>
+        <v>6.433674659466821</v>
       </c>
       <c r="E24">
-        <v>5.396750374876195</v>
+        <v>7.41634280095053</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.991199205880184</v>
+        <v>3.738563098575501</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.44068822830312</v>
+        <v>54.74165600145238</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.701487464162458</v>
+        <v>11.37882759042377</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.51561403429548</v>
+        <v>24.04961133173084</v>
       </c>
       <c r="C25">
-        <v>28.01505920976047</v>
+        <v>17.40484352031753</v>
       </c>
       <c r="D25">
-        <v>7.965531183798887</v>
+        <v>6.219976708203681</v>
       </c>
       <c r="E25">
-        <v>5.168472870795989</v>
+        <v>7.380823668383869</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.037737089444333</v>
+        <v>3.749847977274703</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.7145236236349</v>
+        <v>52.2585918099022</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.986934367747013</v>
+        <v>11.32387263133237</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_253/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_253/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.77523808933262</v>
+        <v>24.68565139463021</v>
       </c>
       <c r="C2">
-        <v>16.50886831778488</v>
+        <v>25.22271177980753</v>
       </c>
       <c r="D2">
-        <v>6.065269279119201</v>
+        <v>7.181089723301376</v>
       </c>
       <c r="E2">
-        <v>7.354145249903395</v>
+        <v>5.013271852623953</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.75874884933868</v>
+        <v>2.07064584604994</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>50.36420617299364</v>
+        <v>64.96793107954514</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.29222126842757</v>
+        <v>8.488364895618103</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.6145350902627</v>
+        <v>22.73470880537766</v>
       </c>
       <c r="C3">
-        <v>15.88631421548643</v>
+        <v>23.26926327688079</v>
       </c>
       <c r="D3">
-        <v>5.962698343820747</v>
+        <v>6.629350721784824</v>
       </c>
       <c r="E3">
-        <v>7.335720397160289</v>
+        <v>4.912869916337681</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.765156196712545</v>
+        <v>2.092651755926921</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>49.04475038904852</v>
+        <v>60.9953070113838</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.27627308599382</v>
+        <v>8.163502190442051</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.52852340840468</v>
+        <v>21.51418972513358</v>
       </c>
       <c r="C4">
-        <v>15.49813573381704</v>
+        <v>22.03348957902409</v>
       </c>
       <c r="D4">
-        <v>5.901054266776604</v>
+        <v>6.282980936363303</v>
       </c>
       <c r="E4">
-        <v>7.324232198230381</v>
+        <v>4.852810899452024</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.769277306055131</v>
+        <v>2.106151488055104</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>48.21913970308682</v>
+        <v>58.50908979103314</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.26919269501724</v>
+        <v>7.969655703610848</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.49668179905144</v>
+        <v>21.01045865282832</v>
       </c>
       <c r="C5">
-        <v>15.33873381940032</v>
+        <v>21.52002738636894</v>
       </c>
       <c r="D5">
-        <v>5.876301385331165</v>
+        <v>6.161057356665226</v>
       </c>
       <c r="E5">
-        <v>7.319505883819788</v>
+        <v>4.828643408051935</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.771003979864485</v>
+        <v>2.111666223615432</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>47.87915159728737</v>
+        <v>57.48331434332439</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.2669887387207</v>
+        <v>7.891998569300916</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.49158891767241</v>
+        <v>20.93310989603869</v>
       </c>
       <c r="C6">
-        <v>15.31220030618667</v>
+        <v>21.43415238520631</v>
       </c>
       <c r="D6">
-        <v>5.872214307179093</v>
+        <v>6.140740172885724</v>
       </c>
       <c r="E6">
-        <v>7.318718357669058</v>
+        <v>4.82464656517851</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.771293556792553</v>
+        <v>2.112583189439566</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>47.82249310304139</v>
+        <v>57.31220653736375</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.26666389986712</v>
+        <v>7.879182737761369</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.52808096106527</v>
+        <v>21.50742270180348</v>
       </c>
       <c r="C7">
-        <v>15.49599052683381</v>
+        <v>22.02660569031505</v>
       </c>
       <c r="D7">
-        <v>5.900718910805269</v>
+        <v>6.281341426628289</v>
       </c>
       <c r="E7">
-        <v>7.324168639750024</v>
+        <v>4.852483835192188</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.769300400751649</v>
+        <v>2.106225787181985</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>48.21456839179891</v>
+        <v>58.49530771495425</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.2691602139771</v>
+        <v>7.968603058345811</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.71721746215704</v>
+        <v>24.01718785889616</v>
       </c>
       <c r="C8">
-        <v>16.29559909644534</v>
+        <v>24.55621443618422</v>
       </c>
       <c r="D8">
-        <v>6.02964510495941</v>
+        <v>6.993138258572156</v>
       </c>
       <c r="E8">
-        <v>7.347828305510065</v>
+        <v>4.97826248709889</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.760919461643765</v>
+        <v>2.078246788244761</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>49.91266566457823</v>
+        <v>63.60732177288783</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.28615929626019</v>
+        <v>8.375129068045057</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.18709167193156</v>
+        <v>28.80347032808516</v>
       </c>
       <c r="C9">
-        <v>17.80579195070857</v>
+        <v>29.27142299674748</v>
       </c>
       <c r="D9">
-        <v>6.291634356827049</v>
+        <v>8.317024095515006</v>
       </c>
       <c r="E9">
-        <v>7.392867790128599</v>
+        <v>5.24283196413765</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.745955500938267</v>
+        <v>2.02236042550701</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>53.10598084163969</v>
+        <v>73.31882898077912</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.34101732494315</v>
+        <v>9.222611918499657</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.59017498007402</v>
+        <v>32.32685549134061</v>
       </c>
       <c r="C10">
-        <v>18.8673625526625</v>
+        <v>32.66722637440987</v>
       </c>
       <c r="D10">
-        <v>6.487789658531641</v>
+        <v>9.262929052848909</v>
       </c>
       <c r="E10">
-        <v>7.425180005837763</v>
+        <v>5.458196250302586</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.735840646515481</v>
+        <v>1.978983981300264</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>55.35164364851484</v>
+        <v>80.39260144140196</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.39442249353165</v>
+        <v>9.888853350917932</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.78545509151069</v>
+        <v>33.96257321590411</v>
       </c>
       <c r="C11">
-        <v>19.33767882967233</v>
+        <v>34.22431169362331</v>
       </c>
       <c r="D11">
-        <v>6.57742378670462</v>
+        <v>9.694698514217912</v>
       </c>
       <c r="E11">
-        <v>7.439721509711927</v>
+        <v>5.564161782497846</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.731426210584606</v>
+        <v>1.958190658295005</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>56.34825886873703</v>
+        <v>83.64473579997465</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.4215481139618</v>
+        <v>10.20643436177527</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.86105305158911</v>
+        <v>34.5906382348883</v>
       </c>
       <c r="C12">
-        <v>19.51381018726279</v>
+        <v>34.81904682024823</v>
       </c>
       <c r="D12">
-        <v>6.611391453260744</v>
+        <v>9.859290763536281</v>
       </c>
       <c r="E12">
-        <v>7.445206196435469</v>
+        <v>5.605870384912004</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.729781144919806</v>
+        <v>1.95009597630423</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>56.72182777822054</v>
+        <v>84.88718565182658</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.43222487932738</v>
+        <v>10.34374211126802</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.84469937222048</v>
+        <v>34.4549091959916</v>
       </c>
       <c r="C13">
-        <v>19.47596690228212</v>
+        <v>34.6906663271891</v>
       </c>
       <c r="D13">
-        <v>6.604075296749327</v>
+        <v>9.823776844101417</v>
       </c>
       <c r="E13">
-        <v>7.444025930908182</v>
+        <v>5.596808565576461</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.730134261417188</v>
+        <v>1.951850490253492</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>56.64154685253616</v>
+        <v>84.61899366519813</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.42990748087298</v>
+        <v>10.30690854676017</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.79164190114597</v>
+        <v>34.01404315195623</v>
       </c>
       <c r="C14">
-        <v>19.35220950723212</v>
+        <v>34.27311511318468</v>
       </c>
       <c r="D14">
-        <v>6.580218005583414</v>
+        <v>9.708211571730104</v>
       </c>
       <c r="E14">
-        <v>7.440173171869399</v>
+        <v>5.567558379360295</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.731290338874986</v>
+        <v>1.95752960844758</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>56.37907061588203</v>
+        <v>83.74669075378625</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.42241839813753</v>
+        <v>10.21649459599217</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.75935552949789</v>
+        <v>33.74526896003694</v>
       </c>
       <c r="C15">
-        <v>19.27614407056051</v>
+        <v>34.01813714132734</v>
       </c>
       <c r="D15">
-        <v>6.565607053981322</v>
+        <v>9.637598033922865</v>
       </c>
       <c r="E15">
-        <v>7.437810421660601</v>
+        <v>5.549863515325964</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.73200192339322</v>
+        <v>1.960977040988324</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>56.21779112269155</v>
+        <v>83.21402278609582</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.41788377076649</v>
+        <v>10.1640024981734</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.5776473820963</v>
+        <v>32.22092290275685</v>
       </c>
       <c r="C16">
-        <v>18.83635899998912</v>
+        <v>32.56597317556383</v>
       </c>
       <c r="D16">
-        <v>6.481937131819723</v>
+        <v>9.234809850601373</v>
       </c>
       <c r="E16">
-        <v>7.424226581794197</v>
+        <v>5.451465336444024</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.736132876115791</v>
+        <v>1.980316235004039</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>55.28598944329334</v>
+        <v>80.18121966883248</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.39270656216826</v>
+        <v>9.86844130969925</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.46918319786797</v>
+        <v>31.29658259283303</v>
       </c>
       <c r="C17">
-        <v>18.5632211534727</v>
+        <v>31.68029239712993</v>
       </c>
       <c r="D17">
-        <v>6.430687751510665</v>
+        <v>8.988625122205313</v>
       </c>
       <c r="E17">
-        <v>7.415853551533254</v>
+        <v>5.393408615150755</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.738714739639791</v>
+        <v>1.991867023455921</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>54.70779153067393</v>
+        <v>78.33307877476282</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.37798488225111</v>
+        <v>9.691232308337911</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.4079231415301</v>
+        <v>30.76772381543055</v>
       </c>
       <c r="C18">
-        <v>18.40494168194963</v>
+        <v>31.17177831940826</v>
       </c>
       <c r="D18">
-        <v>6.40125020150821</v>
+        <v>8.847098333908429</v>
       </c>
       <c r="E18">
-        <v>7.411022735185433</v>
+        <v>5.360735287703893</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.740217364810503</v>
+        <v>1.998416018586745</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>54.37289207779168</v>
+        <v>77.27283611709038</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.36978402788222</v>
+        <v>9.590619524700996</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.38737674507372</v>
+        <v>30.58904435376918</v>
       </c>
       <c r="C19">
-        <v>18.35115376908259</v>
+        <v>30.99967657270039</v>
       </c>
       <c r="D19">
-        <v>6.391290991062826</v>
+        <v>8.799170090670945</v>
       </c>
       <c r="E19">
-        <v>7.409384526173097</v>
+        <v>5.349785542770269</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.740729160283417</v>
+        <v>2.00061883512517</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>54.25910746998674</v>
+        <v>76.91418138870229</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.36705322055048</v>
+        <v>9.556763197121059</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.48061334079644</v>
+        <v>31.39466675783794</v>
       </c>
       <c r="C20">
-        <v>18.59242023553322</v>
+        <v>31.77446043167698</v>
       </c>
       <c r="D20">
-        <v>6.436139462920135</v>
+        <v>9.014819023486341</v>
       </c>
       <c r="E20">
-        <v>7.416746408355049</v>
+        <v>5.399511778691997</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.738438075809372</v>
+        <v>1.990647643166885</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>54.76958519123366</v>
+        <v>78.5294944175901</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.37952444606321</v>
+        <v>9.709956631125467</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.80718192612443</v>
+        <v>34.14326247742405</v>
       </c>
       <c r="C21">
-        <v>19.38861458289812</v>
+        <v>34.3955887850608</v>
       </c>
       <c r="D21">
-        <v>6.587225041765675</v>
+        <v>9.742117680918367</v>
       </c>
       <c r="E21">
-        <v>7.441305407714542</v>
+        <v>5.57610263272529</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.730950051666559</v>
+        <v>1.955868173506626</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>56.45627193384301</v>
+        <v>84.00255065382281</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.42460715535649</v>
+        <v>10.2417680969219</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.03019616748784</v>
+        <v>35.99315471881054</v>
       </c>
       <c r="C22">
-        <v>19.89744911335831</v>
+        <v>36.14096929614966</v>
       </c>
       <c r="D22">
-        <v>6.686100612790227</v>
+        <v>10.22448243983035</v>
       </c>
       <c r="E22">
-        <v>7.457229059735688</v>
+        <v>5.70107980250978</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.726211020840331</v>
+        <v>1.931798556132454</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>57.53621295781244</v>
+        <v>87.64801514267999</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.45642988109103</v>
+        <v>10.72209686871539</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.91031459508922</v>
+        <v>34.9991997383597</v>
       </c>
       <c r="C23">
-        <v>19.62697525907284</v>
+        <v>35.20500578028648</v>
       </c>
       <c r="D23">
-        <v>6.63332722264586</v>
+        <v>9.96600795935143</v>
       </c>
       <c r="E23">
-        <v>7.448741672313199</v>
+        <v>5.633308974160879</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.728726259132987</v>
+        <v>1.944797375513551</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>56.96195189974718</v>
+        <v>85.69342259472886</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.43923055702044</v>
+        <v>10.45438330973542</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.47544235008341</v>
+        <v>31.35031521647504</v>
       </c>
       <c r="C24">
-        <v>18.57922320849811</v>
+        <v>31.73188519154526</v>
       </c>
       <c r="D24">
-        <v>6.433674659466821</v>
+        <v>9.002976797043441</v>
       </c>
       <c r="E24">
-        <v>7.41634280095053</v>
+        <v>5.39675037487626</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.738563098575501</v>
+        <v>1.991199205880158</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>54.74165600145238</v>
+        <v>78.44068822830278</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.37882759042377</v>
+        <v>9.701487464162463</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.04961133173084</v>
+        <v>27.51561403429557</v>
       </c>
       <c r="C25">
-        <v>17.40484352031753</v>
+        <v>28.01505920976061</v>
       </c>
       <c r="D25">
-        <v>6.219976708203681</v>
+        <v>7.96553118379891</v>
       </c>
       <c r="E25">
-        <v>7.380823668383869</v>
+        <v>5.168472870795851</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.749847977274703</v>
+        <v>2.037737089443977</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>52.2585918099022</v>
+        <v>70.71452362363593</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.32387263133237</v>
+        <v>8.98693436774704</v>
       </c>
       <c r="M25">
         <v>0</v>
